--- a/CreateBaseDeck/NREL_SAM/Wind/Turbines.xlsx
+++ b/CreateBaseDeck/NREL_SAM/Wind/Turbines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\NREL_SAM\Wind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1E7DC7-2AD7-45B6-8EB2-50C027127500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0E74AE-89DE-408D-ACE4-BF9659EC645D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,10 +129,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,10 +463,10 @@
       <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -478,1283 +474,1283 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E3" s="8">
+      <c r="E3">
         <v>0.25</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
-      <c r="E4" s="8">
+      <c r="E4">
         <v>0.5</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E5" s="8">
+      <c r="E5">
         <v>0.75</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="8">
+      <c r="E7">
         <v>1.25</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="8">
+      <c r="E8">
         <v>1.5</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E9" s="8">
+      <c r="E9">
         <v>1.75</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E10" s="8">
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="8">
+      <c r="E11">
         <v>2.25</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="8">
+      <c r="E12">
         <v>2.5</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="8">
+      <c r="E13">
         <v>2.75</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="8">
+      <c r="E14">
         <v>3</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14">
         <v>2.4040000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="8">
+      <c r="E15">
         <v>3.25</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15">
         <v>2.7883333333333336E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="8">
+      <c r="E16">
         <v>3.5</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16">
         <v>3.5576666666666666E-2</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="8">
+      <c r="E17">
         <v>3.75</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17">
         <v>4.5193333333333335E-2</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" s="8">
+      <c r="E18">
         <v>4</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18">
         <v>5.6730000000000003E-2</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="8">
+      <c r="E19">
         <v>4.25</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19">
         <v>6.8269999999999997E-2</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="8">
+      <c r="E20">
         <v>4.5</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20">
         <v>8.1729999999999997E-2</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="8">
+      <c r="E21">
         <v>4.75</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21">
         <v>9.9040000000000003E-2</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="8">
+      <c r="E22">
         <v>5</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22">
         <v>0.1125</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="8">
+      <c r="E23">
         <v>5.25</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23">
         <v>0.12980666666666668</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="8">
+      <c r="E24">
         <v>5.5</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24">
         <v>0.14711666666666667</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="8">
+      <c r="E25">
         <v>5.75</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25">
         <v>0.16827</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="8">
+      <c r="E26">
         <v>6</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26">
         <v>0.18942333333333333</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E27" s="8">
+      <c r="E27">
         <v>6.25</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27">
         <v>0.21442333333333333</v>
       </c>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="8">
+      <c r="E28">
         <v>6.5</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28">
         <v>0.24326999999999999</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E29" s="8">
+      <c r="E29">
         <v>6.75</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29">
         <v>0.27211666666666667</v>
       </c>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E30" s="8">
+      <c r="E30">
         <v>7</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30">
         <v>0.30865333333333334</v>
       </c>
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E31" s="8">
+      <c r="E31">
         <v>7.25</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31">
         <v>0.35</v>
       </c>
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E32" s="8">
+      <c r="E32">
         <v>7.5</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32">
         <v>0.39</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="8">
+      <c r="E33">
         <v>7.75</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33">
         <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="8">
+      <c r="E34">
         <v>8</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34">
         <v>0.47333333333333333</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="8">
+      <c r="E35">
         <v>8.25</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35">
         <v>0.51333333333333331</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E36" s="8">
+      <c r="E36">
         <v>8.5</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36">
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E37" s="8">
+      <c r="E37">
         <v>8.75</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37">
         <v>0.60333333333333339</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E38" s="8">
+      <c r="E38">
         <v>9</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38">
         <v>0.65333333333333332</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E39" s="8">
+      <c r="E39">
         <v>9.25</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39">
         <v>0.70333333333333337</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E40" s="8">
+      <c r="E40">
         <v>9.5</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40">
         <v>0.75666666666666671</v>
       </c>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E41" s="8">
+      <c r="E41">
         <v>9.75</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41">
         <v>0.81</v>
       </c>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E42" s="8">
+      <c r="E42">
         <v>10</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42">
         <v>0.85333333333333339</v>
       </c>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E43" s="8">
+      <c r="E43">
         <v>10.25</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43">
         <v>0.9</v>
       </c>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E44" s="8">
+      <c r="E44">
         <v>10.5</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44">
         <v>0.93666666666666665</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E45" s="8">
+      <c r="E45">
         <v>10.75</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45">
         <v>0.96</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E46" s="8">
+      <c r="E46">
         <v>11</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46">
         <v>0.97666666666666668</v>
       </c>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E47" s="8">
+      <c r="E47">
         <v>11.25</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47">
         <v>0.98666666666666669</v>
       </c>
     </row>
     <row r="48" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E48" s="8">
+      <c r="E48">
         <v>11.5</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48">
         <v>0.99333333333333329</v>
       </c>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E49" s="8">
+      <c r="E49">
         <v>11.75</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E50" s="8">
+      <c r="E50">
         <v>12</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E51" s="8">
+      <c r="E51">
         <v>12.25</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E52" s="8">
+      <c r="E52">
         <v>12.5</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E53" s="8">
+      <c r="E53">
         <v>12.75</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E54" s="8">
+      <c r="E54">
         <v>13</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E55" s="8">
+      <c r="E55">
         <v>13.25</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E56" s="8">
+      <c r="E56">
         <v>13.5</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E57" s="8">
+      <c r="E57">
         <v>13.75</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E58" s="8">
+      <c r="E58">
         <v>14</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E59" s="8">
+      <c r="E59">
         <v>14.25</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E60" s="8">
+      <c r="E60">
         <v>14.5</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E61" s="8">
+      <c r="E61">
         <v>14.75</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E62" s="8">
+      <c r="E62">
         <v>15</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E63" s="8">
+      <c r="E63">
         <v>15.25</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E64" s="8">
+      <c r="E64">
         <v>15.5</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E65" s="8">
+      <c r="E65">
         <v>15.75</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E66" s="8">
+      <c r="E66">
         <v>16</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E67" s="8">
+      <c r="E67">
         <v>16.25</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E68" s="8">
+      <c r="E68">
         <v>16.5</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E69" s="8">
+      <c r="E69">
         <v>16.75</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E70" s="8">
+      <c r="E70">
         <v>17</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E71" s="8">
+      <c r="E71">
         <v>17.25</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E72" s="8">
+      <c r="E72">
         <v>17.5</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E73" s="8">
+      <c r="E73">
         <v>17.75</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E74" s="8">
+      <c r="E74">
         <v>18</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E75" s="8">
+      <c r="E75">
         <v>18.25</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E76" s="8">
+      <c r="E76">
         <v>18.5</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E77" s="8">
+      <c r="E77">
         <v>18.75</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E78" s="8">
+      <c r="E78">
         <v>19</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E79" s="8">
+      <c r="E79">
         <v>19.25</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E80" s="8">
+      <c r="E80">
         <v>19.5</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E81" s="8">
+      <c r="E81">
         <v>19.75</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E82" s="8">
+      <c r="E82">
         <v>20</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E83" s="8">
+      <c r="E83">
         <v>20.25</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E84" s="8">
+      <c r="E84">
         <v>20.5</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E85" s="8">
+      <c r="E85">
         <v>20.75</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E86" s="8">
+      <c r="E86">
         <v>21</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E87" s="8">
+      <c r="E87">
         <v>21.25</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E88" s="8">
+      <c r="E88">
         <v>21.5</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E89" s="8">
+      <c r="E89">
         <v>21.75</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E90" s="8">
+      <c r="E90">
         <v>22</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E91" s="8">
+      <c r="E91">
         <v>22.25</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E92" s="8">
+      <c r="E92">
         <v>22.5</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E93" s="8">
+      <c r="E93">
         <v>22.75</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E94" s="8">
+      <c r="E94">
         <v>23</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E95" s="8">
+      <c r="E95">
         <v>23.25</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E96" s="8">
+      <c r="E96">
         <v>23.5</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E97" s="8">
+      <c r="E97">
         <v>23.75</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E98" s="8">
+      <c r="E98">
         <v>24</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E99" s="8">
+      <c r="E99">
         <v>24.25</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E100" s="8">
+      <c r="E100">
         <v>24.5</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E101" s="8">
+      <c r="E101">
         <v>24.75</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E102" s="8">
+      <c r="E102">
         <v>25</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E103" s="8">
+      <c r="E103">
         <v>25.25</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E104" s="8">
+      <c r="E104">
         <v>25.5</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E105" s="8">
+      <c r="E105">
         <v>25.75</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E106" s="8">
+      <c r="E106">
         <v>26</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E107" s="8">
+      <c r="E107">
         <v>26.25</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E108" s="8">
+      <c r="E108">
         <v>26.5</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E109" s="8">
+      <c r="E109">
         <v>26.75</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E110" s="8">
+      <c r="E110">
         <v>27</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E111" s="8">
+      <c r="E111">
         <v>27.25</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F111">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E112" s="8">
+      <c r="E112">
         <v>27.5</v>
       </c>
-      <c r="F112" s="7">
+      <c r="F112">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E113" s="8">
+      <c r="E113">
         <v>27.75</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E114" s="8">
+      <c r="E114">
         <v>28</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E115" s="8">
+      <c r="E115">
         <v>28.25</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E116" s="8">
+      <c r="E116">
         <v>28.5</v>
       </c>
-      <c r="F116" s="7">
+      <c r="F116">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E117" s="8">
+      <c r="E117">
         <v>28.75</v>
       </c>
-      <c r="F117" s="7">
+      <c r="F117">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E118" s="8">
+      <c r="E118">
         <v>29</v>
       </c>
-      <c r="F118" s="7">
+      <c r="F118">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E119" s="8">
+      <c r="E119">
         <v>29.25</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E120" s="8">
+      <c r="E120">
         <v>29.5</v>
       </c>
-      <c r="F120" s="7">
+      <c r="F120">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E121" s="8">
+      <c r="E121">
         <v>29.75</v>
       </c>
-      <c r="F121" s="7">
+      <c r="F121">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E122" s="8">
+      <c r="E122">
         <v>30</v>
       </c>
-      <c r="F122" s="7">
+      <c r="F122">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E123" s="8">
+      <c r="E123">
         <v>30.25</v>
       </c>
-      <c r="F123" s="7">
+      <c r="F123">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E124" s="8">
+      <c r="E124">
         <v>30.5</v>
       </c>
-      <c r="F124" s="7">
+      <c r="F124">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E125" s="8">
+      <c r="E125">
         <v>30.75</v>
       </c>
-      <c r="F125" s="7">
+      <c r="F125">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E126" s="8">
+      <c r="E126">
         <v>31</v>
       </c>
-      <c r="F126" s="7">
+      <c r="F126">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E127" s="8">
+      <c r="E127">
         <v>31.25</v>
       </c>
-      <c r="F127" s="7">
+      <c r="F127">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E128" s="8">
+      <c r="E128">
         <v>31.5</v>
       </c>
-      <c r="F128" s="7">
+      <c r="F128">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E129" s="8">
+      <c r="E129">
         <v>31.75</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F129">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E130" s="8">
+      <c r="E130">
         <v>32</v>
       </c>
-      <c r="F130" s="7">
+      <c r="F130">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E131" s="8">
+      <c r="E131">
         <v>32.25</v>
       </c>
-      <c r="F131" s="7">
+      <c r="F131">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E132" s="8">
+      <c r="E132">
         <v>32.5</v>
       </c>
-      <c r="F132" s="7">
+      <c r="F132">
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E133" s="8">
+      <c r="E133">
         <v>32.75</v>
       </c>
-      <c r="F133" s="7">
+      <c r="F133">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E134" s="8">
+      <c r="E134">
         <v>33</v>
       </c>
-      <c r="F134" s="7">
+      <c r="F134">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E135" s="8">
+      <c r="E135">
         <v>33.25</v>
       </c>
-      <c r="F135" s="7">
+      <c r="F135">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E136" s="8">
+      <c r="E136">
         <v>33.5</v>
       </c>
-      <c r="F136" s="7">
+      <c r="F136">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E137" s="8">
+      <c r="E137">
         <v>33.75</v>
       </c>
-      <c r="F137" s="7">
+      <c r="F137">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E138" s="8">
+      <c r="E138">
         <v>34</v>
       </c>
-      <c r="F138" s="7">
+      <c r="F138">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E139" s="8">
+      <c r="E139">
         <v>34.25</v>
       </c>
-      <c r="F139" s="7">
+      <c r="F139">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E140" s="8">
+      <c r="E140">
         <v>34.5</v>
       </c>
-      <c r="F140" s="7">
+      <c r="F140">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E141" s="8">
+      <c r="E141">
         <v>34.75</v>
       </c>
-      <c r="F141" s="7">
+      <c r="F141">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E142" s="8">
+      <c r="E142">
         <v>35</v>
       </c>
-      <c r="F142" s="7">
+      <c r="F142">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E143" s="8">
+      <c r="E143">
         <v>35.25</v>
       </c>
-      <c r="F143" s="7">
+      <c r="F143">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E144" s="8">
+      <c r="E144">
         <v>35.5</v>
       </c>
-      <c r="F144" s="7">
+      <c r="F144">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E145" s="8">
+      <c r="E145">
         <v>35.75</v>
       </c>
-      <c r="F145" s="7">
+      <c r="F145">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E146" s="8">
+      <c r="E146">
         <v>36</v>
       </c>
-      <c r="F146" s="7">
+      <c r="F146">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E147" s="8">
+      <c r="E147">
         <v>36.25</v>
       </c>
-      <c r="F147" s="7">
+      <c r="F147">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E148" s="8">
+      <c r="E148">
         <v>36.5</v>
       </c>
-      <c r="F148" s="7">
+      <c r="F148">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E149" s="8">
+      <c r="E149">
         <v>36.75</v>
       </c>
-      <c r="F149" s="7">
+      <c r="F149">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E150" s="8">
+      <c r="E150">
         <v>37</v>
       </c>
-      <c r="F150" s="7">
+      <c r="F150">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E151" s="8">
+      <c r="E151">
         <v>37.25</v>
       </c>
-      <c r="F151" s="7">
+      <c r="F151">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E152" s="8">
+      <c r="E152">
         <v>37.5</v>
       </c>
-      <c r="F152" s="7">
+      <c r="F152">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E153" s="8">
+      <c r="E153">
         <v>37.75</v>
       </c>
-      <c r="F153" s="7">
+      <c r="F153">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E154" s="8">
+      <c r="E154">
         <v>38</v>
       </c>
-      <c r="F154" s="7">
+      <c r="F154">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E155" s="8">
+      <c r="E155">
         <v>38.25</v>
       </c>
-      <c r="F155" s="7">
+      <c r="F155">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E156" s="8">
+      <c r="E156">
         <v>38.5</v>
       </c>
-      <c r="F156" s="7">
+      <c r="F156">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E157" s="8">
+      <c r="E157">
         <v>38.75</v>
       </c>
-      <c r="F157" s="7">
+      <c r="F157">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E158" s="8">
+      <c r="E158">
         <v>39</v>
       </c>
-      <c r="F158" s="7">
+      <c r="F158">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E159" s="8">
+      <c r="E159">
         <v>39.25</v>
       </c>
-      <c r="F159" s="7">
+      <c r="F159">
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E160" s="8">
+      <c r="E160">
         <v>39.5</v>
       </c>
-      <c r="F160" s="7">
+      <c r="F160">
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E161" s="8">
+      <c r="E161">
         <v>39.75</v>
       </c>
-      <c r="F161" s="7">
+      <c r="F161">
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E162" s="8">
+      <c r="E162">
         <v>40</v>
       </c>
-      <c r="F162" s="7">
+      <c r="F162">
         <v>0</v>
       </c>
     </row>
@@ -1768,7 +1764,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,22 +1803,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="B2" s="1">
         <f>1-0.157</f>
         <v>0.84299999999999997</v>
       </c>
       <c r="C2" s="1">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="D2" s="1">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1830,235 +1826,235 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E3" s="5">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>4.8333333333333332E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
-      <c r="E4" s="5">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>8.2083333333333328E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E5" s="5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2.4E-2</v>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0.15016666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="5">
-        <v>5</v>
-      </c>
-      <c r="F6" s="6">
-        <v>7.4499999999999997E-2</v>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>0.2525</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7" s="5">
-        <v>6</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.141875</v>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>0.38908333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E8" s="5">
-        <v>7</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.23325000000000001</v>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E9" s="5">
-        <v>8</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.36778875</v>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>0.76516666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E10" s="5">
-        <v>9</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.52649999999999997</v>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="5">
-        <v>10</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.70912500000000001</v>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="5">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.89187499999999997</v>
+      <c r="E12">
+        <v>13</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="5">
-        <v>12</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.98562499999999997</v>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="5">
-        <v>13</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="5">
-        <v>14</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E16" s="5">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="5">
-        <v>16</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" s="5">
-        <v>17</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18">
+        <v>19</v>
+      </c>
+      <c r="F18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="5">
-        <v>18</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="5">
-        <v>19</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="E20">
+        <v>21</v>
+      </c>
+      <c r="F20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="5">
-        <v>20</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="E21">
+        <v>22</v>
+      </c>
+      <c r="F21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="5">
-        <v>21</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="E22">
+        <v>23</v>
+      </c>
+      <c r="F22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="5">
-        <v>22</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="E23">
+        <v>24</v>
+      </c>
+      <c r="F23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="5">
-        <v>23</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="E24">
+        <v>25</v>
+      </c>
+      <c r="F24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="5">
-        <v>24</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
+      <c r="E25">
+        <v>26</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="5">
-        <v>25</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1</v>
+      <c r="E26">
+        <v>27</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E27" s="5">
-        <v>26</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="E27">
+        <v>28</v>
+      </c>
+      <c r="F27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="5">
-        <v>27</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="E28">
+        <v>29</v>
+      </c>
+      <c r="F28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E29" s="5">
-        <v>28</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="F29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E30" s="5">
-        <v>29</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="E30">
+        <v>31</v>
+      </c>
+      <c r="F30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E31" s="5">
-        <v>30</v>
-      </c>
-      <c r="F31" s="6">
+      <c r="E31">
+        <v>32</v>
+      </c>
+      <c r="F31">
         <v>0</v>
       </c>
     </row>
